--- a/biology/Médecine/Michael_Mak_Kwok-Fung/Michael_Mak_Kwok-Fung.xlsx
+++ b/biology/Médecine/Michael_Mak_Kwok-Fung/Michael_Mak_Kwok-Fung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Michael Mak Kwok-Fung ((zh) 麦 国 风) (né le 23 août 1955 à Hong Kong) est un homme politique hongkongais. Il est membre d'une organisation politique pro-démocratique, et est un membre élu du district de Wan Chai[1]. Il est le fondateur et le vice-président de la Ligue des sociaux-démocrates de Hong Kong, et a été élu au Conseil consultatif du parti en 2010. Il a été élu au Conseil Législatif de Hong Kong de 2000 à 2004 par le groupe fonctionnel des services de santé. Il a travaillé avec le Castle Peak Hospital et le Prince of Wales Hospital, et sert maintenant de manager département Operations au Kwai Chung Hospital[2].
-En 2008, on lui a refusé d'entrer à Macao pour assister à une réunion sur l'allaitement lorsque le relais de la torche olympique[3].
+Michael Mak Kwok-Fung ((zh) 麦 国 风) (né le 23 août 1955 à Hong Kong) est un homme politique hongkongais. Il est membre d'une organisation politique pro-démocratique, et est un membre élu du district de Wan Chai. Il est le fondateur et le vice-président de la Ligue des sociaux-démocrates de Hong Kong, et a été élu au Conseil consultatif du parti en 2010. Il a été élu au Conseil Législatif de Hong Kong de 2000 à 2004 par le groupe fonctionnel des services de santé. Il a travaillé avec le Castle Peak Hospital et le Prince of Wales Hospital, et sert maintenant de manager département Operations au Kwai Chung Hospital.
+En 2008, on lui a refusé d'entrer à Macao pour assister à une réunion sur l'allaitement lorsque le relais de la torche olympique.
 </t>
         </is>
       </c>
